--- a/王者系统/测试文档/王者系统订单测试用例2022-09-13.xlsx
+++ b/王者系统/测试文档/王者系统订单测试用例2022-09-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\王者系统\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298D484-2A61-4BAB-B5C6-B01F6E801305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A958E-970B-40A1-A7DF-F51C57897987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{536875B9-95B1-4DE2-94EB-8EA85D31D9CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,13 +82,6 @@
   </si>
   <si>
     <t>登录用户：15108281901，进入复购区，余额支付+复购积分购买商品“逆转年华产品-晚霜”，价格：99元，成本：72元，积分：60；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：99元，余额剩余：1201-99=1102元；
-3.扣除复购积分：60分；积分剩余：100-60=40；
-4.个人业绩增加：99-72=27；平台业绩增加：27；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,97 +120,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：99元，余额剩余：1201-99=1102元；
-3.扣除复购积分：60分；积分剩余：100-60=40；
-4.个人业绩增加：99-72=27；平台业绩增加：27；
-直推奖励：
-5.用户15108281901获得奖励：27*0.12=3；复购积分增加：3*0.2=1；余额增加：3-1=2；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王者系统订单测试用例运行结果报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：99元，余额剩余：1201-99=1102元；
-3.扣除复购积分：60分；积分剩余：100-60=40；
-4.个人业绩增加：99-72=27；平台业绩增加：27；
-直推奖励：
-5.用户13688499905获得奖励：27*0.12=3；复购积分增加：3*0.2=1；余额增加：3-1=2；
-6.用户13688499905市场业绩增加：27；
-直推奖励：
-5.用户15108281901获得奖励：27*0.06=2；复购积分增加：2*0.2=1；余额增加：2-1=1；
-6.用户15108281901市场业绩增加：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单，有直推，有间推
-13683485140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录用户：13683485140，进入活动专区，余额支付购买商品“参麦双果植物固体饮（呼吸产品）-预售”，价格：1100元；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：199元，余额剩余：2500-199=2301元；
-3.个人业绩增加：199-97=102；平台业绩增加：102；
-4.个人积分池增加199*3=597：平台积分池：597；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：599元，余额剩余：2500-599=1901元；
-3.个人业绩增加：599-103=496；平台业绩增加：496；
-4.个人积分池增加599*3=1797：平台积分池：1797；
-直推奖励：
-5.用户15110075087获得奖励：496*0.12=59；复购积分增加：59*0.2=12；余额增加：59-12=47；
-6.用户15110075087市场业绩增加：496；
-间推奖励：
-5.用户13688499905获得奖励：496*0.06=29；复购积分增加：29*0.2=6；余额增加：29-6=23；
-6.用户13688499905市场业绩增加：496；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：199元，余额剩余：2500-199=2301元；
-3.个人业绩增加：199-97=102；平台业绩增加：102；
-4.个人积分池增加199*3=597：平台积分池：597；
-直推奖励：
-5.用户13688499905获得奖励：102*0.12=12；复购积分增加：12*0.2=2；余额增加：12-2=10；
-6.用户13688499905市场业绩增加：102；
-间推奖励：
-5.用户15108281901获得奖励：102*0.06=6；复购积分增加：6*0.2=1；余额增加：6-1=5；
-6.用户15108281901市场业绩增加：102；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：199元，余额剩余：2500-199=2301元；
-3.个人业绩增加：199-97=102；平台业绩增加：102；
-4.个人积分池增加199*3=597：平台积分池：597；
-直推奖励：
-5.用户15108281901获得奖励：102*0.12=12；复购积分增加：12*0.2=2；余额增加：12-2=10；
-6.用户15108281901市场业绩增加：102；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.扣除余额：99元，余额剩余：1201-99=1102元；
-3.扣除复购积分：60分；积分剩余：100-60=40；
-4.个人业绩增加：99-72=27；平台业绩增加：27；
-直推奖励：
-5.用户15110075087获得奖励：27*0.12=3；复购积分增加：3*0.2=1；余额增加：3-1=2；
-6.用户15110075087市场业绩增加：27；
-直推奖励：
-5.用户13688499905获得奖励：27*0.06=2；复购积分增加：2*0.2=1；余额增加：2-1=1；
-6.用户13688499905市场业绩增加：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录用户：15110075087，进入平价商城，余额支付购买商品“电磁炉 GKN-LF-11”，价格：199元，成本：97元；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,11 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录用户：13683485140，进入平价商城，余额支付购买商品“格卡诺5级透窗白金能量机 净水器”，价格：599元，成本：103元；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录用户：13683485140，进入复购区，余额支付+复购积分购买商品“逆转年华产品-晚霜”，价格：99元，成本：72元，积分：60；</t>
+    <t>5.成功
+6.成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功
+2.成功
+3.成功
+4.平台积分池：未知；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,14 +148,7 @@
 2.成功
 3.成功
 4.成功
-5.个人业绩增加：成功；平台业绩增加：未知；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.成功
-2.成功
-3.成功
-4.个人业绩增加：99；平台业绩增加：未知；</t>
+5.平台业绩增加：未知；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,9 +157,87 @@
 3.赠送组团抽奖券1张；
 4.扣除余额：1100元，余额剩余：2301-1100=1201元；
 5.个人业绩增加：1100；平台业绩增加：1100；
+6.组团抽奖后，奖励积分：2200；平台积分池增加：2200；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功
+2.成功
+3.成功
+4.成功
+5.平台业绩增加：未知；
+6.平台积分池：未知；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下单成功，订单为已支付状态；
+2.扣除余额：199元，余额剩余：2500-199=2301元；
+3.个人业绩增加：199；
+订单签收后：
+4.平台业绩增加：199-97=102，个人积分池增加199*3=597：平台积分池：597；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下单成功，订单为已支付状态；
+2.扣除余额：99元，余额剩余：1201-99=1102元；
+3.扣除复购积分：60分；积分剩余：100-60=40；
+4.个人业绩增加：99；
+订单签收后：
+5.平台业绩增加：99-72=27；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.成功
+8.成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下单成功，订单为已支付状态；
+2.扣除余额：99元，余额剩余：1201-99=1102元；
+3.扣除复购积分：60分；积分剩余：100-60=40；
+4.个人业绩增加：99；
+5.用户15108281901市场业绩增加：99；
+订单签收后：
 直推奖励：
-5.用户15108281901获得奖励：150；复购积分增加：150*0.15=22；余额增加：150-22=128；
-6.用户15108281901市场业绩增加：1100；</t>
+6.用户15108281901获得奖励：（99-72）* 0.12=3；复购积分增加：3*0.15=0（向下取整）；余额增加：3-0=3；
+7.平台业绩增加：99-72-3=24；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下单成功，订单为已支付状态；
+2.扣除余额：199元，余额剩余：2500-199=2301元；
+3.个人业绩增加：199；
+4.用户15108281901市场业绩增加：199；
+订单签收后：
+5.个人积分池增加199*3=597：平台积分池：597；
+直推奖励：
+6.用户15108281901获得奖励：（199-97）* 0.12=12；复购积分增加：12*0.15=1（向下取整）；余额增加：12-1=11；
+7.平台业绩增加：199-97-12=90；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.成功
+6.成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.成功
+8.成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下单成功，订单为已支付状态；
+2.扣除余额：199元，余额剩余：2500-199=2301元；
+3.个人业绩增加：199；
+4.用户13688499905市场业绩增加：199；
+5.用户15108281901市场业绩增加：199；
+订单签收后：
+6.个人积分池增加199*3=597：平台积分池：597；
+直推奖励：
+7.用户13688499905获得奖励：（199-97）* 0.12=12；复购积分增加：12*0.15=1（向下取整）；余额增加：12-1=11；
+间推奖励：
+8.用户15108281901获得奖励：（199-97）* 0.06=6；复购积分增加：6*0.15=0（向下取整）；余额增加：6-0=6；
+9.平台业绩增加：199-97-12-6=84；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,12 +246,16 @@
 3.赠送组团抽奖券1张；
 4.扣除余额：1100元，余额剩余：2301-1100=1201元；
 5.个人业绩增加：1100；平台业绩增加：1100；
+6.用户15108281901市场业绩增加：1100；
+组团抽奖中奖后：
+7.奖励积分：2200；平台积分池增加：2200；
 直推奖励：
-5.用户15110075087获得奖励：150；复购积分增加：150*0.15=22；余额增加：150-22=128；
-6.用户15110075087市场业绩增加：1100；
-间推奖励：
-5.用户13688499905获得奖励：100；复购积分增加：100*0.15=15；余额增加：100-15=85；
-6.用户13688499905市场业绩增加：1100；</t>
+8.用户15108281901获得奖励：150；复购积分增加：150*0.15=22；余额增加：150-22=128；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.成功
+8.成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,33 +264,30 @@
 3.赠送组团抽奖券1张；
 4.扣除余额：1100元，余额剩余：2301-1100=1201元；
 5.个人业绩增加：1100；平台业绩增加：1100；
+6.用户13688499905市场业绩增加：1100；
+7.用户15108281901市场业绩增加：1100；
+组团抽奖中奖后：
+8.奖励积分：2200；平台积分池增加：2200；
 直推奖励：
-5.用户13688499905获得奖励：150；复购积分增加：150*0.15=22；余额增加：150-22=128；
-6.用户13688499905市场业绩增加：1100；
+9.用户15108281901获得奖励：150；复购积分增加：150*0.15=22；余额增加：150-22=128；
 间推奖励：
-5.用户15108281901获得奖励：100；复购积分增加：100*0.15=15；余额增加：100-15=85；
-6.用户15108281901市场业绩增加：1100；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.下单成功，订单为已支付状态；
-2.活动区首单，赠送100复购积分；
-3.赠送组团抽奖券1张；
-4.扣除余额：1100元，余额剩余：2301-1100=1201元；
-5.个人业绩增加：1100；平台业绩增加：1100；
-6.组团抽奖奖励积分：2200；平台积分池增加：2200；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.成功
-2.成功
-3.个人业绩增加：199；平台业绩增加：未知
-4.个人积分池增加：597；平台积分池：未知；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.成功
-6.成功</t>
+10.用户15108281901获得奖励：100；复购积分增加：100*0.15=15；余额增加：100-15=85；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下单成功，订单为已支付状态；
+2.扣除余额：99元，余额剩余：1201-99=1102元；
+3.扣除复购积分：60分；积分剩余：100-60=40；
+4.个人业绩增加：99；
+5.用户13688499905市场业绩增加：99；
+6.用户15108281901市场业绩增加：99；
+订单签收后：
+直推奖励：
+7.用户13688499905获得奖励：（99-72）* 0.12=3；复购积分增加：3*0.15=0（向下取整）；余额增加：3-0=3；
+间推奖励：
+8.用户15108281901获得奖励：（99-72）* 0.06=1；复购积分增加：1*0.15=0；余额增加：1-0=1；
+9.平台业绩增加：99-72-3-1=23；
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709AE23-7050-41A7-879C-CFE9D16ED959}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -768,7 +750,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -800,21 +782,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
@@ -828,15 +810,15 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -845,163 +827,123 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="243.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="212.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="252.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="178.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="181.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
